--- a/Backend/Alterações banco.xlsx
+++ b/Backend/Alterações banco.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\PROJETOS\PC\ERP\BACKEND\BANCO DE DADOS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="2535" windowWidth="15180" windowHeight="5700"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6933" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6934" uniqueCount="1571">
   <si>
     <t>Alteração</t>
   </si>
@@ -11073,6 +11068,9 @@
     <t xml:space="preserve">ALTER TABLE ERPMTSMOVIMENTACAO DROP COLUMN ECF_DATAMOVIMENTO
 GO
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sfsdfasdafsa </t>
   </si>
 </sst>
 </file>
@@ -11501,7 +11499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11536,7 +11534,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -27392,7 +27390,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="1122" spans="1:4" ht="357" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:4" ht="344.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1122" s="31" t="s">
         <v>1050</v>
       </c>
@@ -27406,7 +27404,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="1123" spans="1:4" ht="357" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:4" ht="344.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1123" s="31" t="s">
         <v>1052</v>
       </c>
@@ -36074,13 +36072,17 @@
       </c>
     </row>
     <row r="1742" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1742" s="44"/>
+      <c r="A1742" s="44">
+        <v>1213123123</v>
+      </c>
       <c r="B1742" s="44"/>
       <c r="C1742" s="44"/>
       <c r="D1742" s="52"/>
     </row>
     <row r="1743" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1743" s="44"/>
+      <c r="A1743" s="44" t="s">
+        <v>1570</v>
+      </c>
       <c r="B1743" s="44"/>
       <c r="C1743" s="44"/>
       <c r="D1743" s="52"/>
